--- a/verif_results/no_exact/datos_verificacion_relu_1como7.xlsx
+++ b/verif_results/no_exact/datos_verificacion_relu_1como7.xlsx
@@ -437,7 +437,7 @@
         </is>
       </c>
       <c r="E1" t="n">
-        <v>0.07237124443054199</v>
+        <v>0.07277321815490723</v>
       </c>
       <c r="F1" t="n">
         <v>0</v>
@@ -458,7 +458,7 @@
         </is>
       </c>
       <c r="J1" t="n">
-        <v>0.07284688949584961</v>
+        <v>0.07239651679992676</v>
       </c>
       <c r="K1" t="n">
         <v>0</v>
@@ -490,7 +490,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3.096823692321777</v>
+        <v>3.134772539138794</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>2.974023342132568</v>
+        <v>4.54803729057312</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1.304923057556152</v>
+        <v>1.163061618804932</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1.343953132629395</v>
+        <v>1.041200637817383</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2.145646333694458</v>
+        <v>2.694247007369995</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>1.982510328292847</v>
+        <v>2.706898927688599</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -649,7 +649,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.02857208251953125</v>
+        <v>0.02907180786132812</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>0.03792405128479004</v>
+        <v>0.03879189491271973</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.280620813369751</v>
+        <v>0.2814030647277832</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -723,7 +723,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>0.08488249778747559</v>
+        <v>0.08620405197143555</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1.840812683105469</v>
+        <v>1.364749670028687</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>1.083850860595703</v>
+        <v>0.8299593925476074</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>27.72120189666748</v>
+        <v>17.16852498054504</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>18.29365706443787</v>
+        <v>59.86401295661926</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.1490821838378906</v>
+        <v>0.1494183540344238</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>0.8168802261352539</v>
+        <v>0.7912757396697998</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5.986499071121216</v>
+        <v>4.607250452041626</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -935,7 +935,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>2.055048227310181</v>
+        <v>1.343534231185913</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1.96723747253418</v>
+        <v>1.673314809799194</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>1.272058963775635</v>
+        <v>1.217634916305542</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4.378109216690063</v>
+        <v>7.090998411178589</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>5.455162763595581</v>
+        <v>6.319898366928101</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>

--- a/verif_results/no_exact/datos_verificacion_relu_1como7.xlsx
+++ b/verif_results/no_exact/datos_verificacion_relu_1como7.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,38 +437,44 @@
         </is>
       </c>
       <c r="E1" t="n">
-        <v>0.07277321815490723</v>
+        <v>0.09993672370910645</v>
       </c>
       <c r="F1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="G1" t="n">
+        <v>0</v>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>optimal</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
           <t>mix</t>
         </is>
       </c>
-      <c r="J1" t="n">
-        <v>0.07239651679992676</v>
-      </c>
       <c r="K1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
+        <v>0.09813404083251953</v>
+      </c>
+      <c r="L1" t="n">
+        <v>3</v>
+      </c>
+      <c r="M1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
         <is>
           <t>optimal</t>
         </is>
@@ -490,38 +496,44 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3.134772539138794</v>
+        <v>3.824306726455688</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>optimal</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>mix</t>
         </is>
       </c>
-      <c r="J2" t="n">
-        <v>4.54803729057312</v>
-      </c>
       <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
+        <v>5.227068901062012</v>
+      </c>
+      <c r="L2" t="n">
+        <v>5</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>optimal</t>
         </is>
@@ -543,38 +555,44 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1.163061618804932</v>
+        <v>1.093998193740845</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+        <v>12</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>optimal</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>mix</t>
         </is>
       </c>
-      <c r="J3" t="n">
-        <v>1.041200637817383</v>
-      </c>
       <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
+        <v>1.439330577850342</v>
+      </c>
+      <c r="L3" t="n">
+        <v>12</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>optimal</t>
         </is>
@@ -596,38 +614,44 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2.694247007369995</v>
+        <v>2.45500111579895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>optimal</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>mix</t>
         </is>
       </c>
-      <c r="J4" t="n">
-        <v>2.706898927688599</v>
-      </c>
       <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
+        <v>2.960021495819092</v>
+      </c>
+      <c r="L4" t="n">
+        <v>9</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>optimal</t>
         </is>
@@ -649,38 +673,44 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.02907180786132812</v>
+        <v>0.01483893394470215</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+      <c r="G5" t="n">
+        <v>0</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>optimal</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>mix</t>
         </is>
       </c>
-      <c r="J5" t="n">
-        <v>0.03879189491271973</v>
-      </c>
       <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
+        <v>0.03736066818237305</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>optimal</t>
         </is>
@@ -702,38 +732,44 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.2814030647277832</v>
+        <v>0.2435784339904785</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>optimal</t>
-        </is>
-      </c>
       <c r="I6" t="inlineStr">
         <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>mix</t>
         </is>
       </c>
-      <c r="J6" t="n">
-        <v>0.08620405197143555</v>
-      </c>
       <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="inlineStr">
+        <v>0.1268658638000488</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>optimal</t>
         </is>
@@ -755,38 +791,44 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1.364749670028687</v>
+        <v>2.285854816436768</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>optimal</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>mix</t>
         </is>
       </c>
-      <c r="J7" t="n">
-        <v>0.8299593925476074</v>
-      </c>
       <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
+        <v>0.8546760082244873</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>optimal</t>
         </is>
@@ -808,38 +850,44 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>17.16852498054504</v>
+        <v>19.98998689651489</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+        <v>38</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>optimal</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>mix</t>
         </is>
       </c>
-      <c r="J8" t="n">
-        <v>59.86401295661926</v>
-      </c>
       <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
+        <v>59.22467517852783</v>
+      </c>
+      <c r="L8" t="n">
+        <v>39</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
         <is>
           <t>optimal</t>
         </is>
@@ -861,38 +909,44 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.1494183540344238</v>
+        <v>0.3874006271362305</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>optimal</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>mix</t>
         </is>
       </c>
-      <c r="J9" t="n">
-        <v>0.7912757396697998</v>
-      </c>
       <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
+        <v>0.7926912307739258</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
         <is>
           <t>optimal</t>
         </is>
@@ -914,38 +968,44 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4.607250452041626</v>
+        <v>2.142694711685181</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>optimal</t>
-        </is>
-      </c>
       <c r="I10" t="inlineStr">
         <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>mix</t>
         </is>
       </c>
-      <c r="J10" t="n">
-        <v>1.343534231185913</v>
-      </c>
       <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="inlineStr">
+        <v>1.794189214706421</v>
+      </c>
+      <c r="L10" t="n">
+        <v>9</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>optimal</t>
         </is>
@@ -967,38 +1027,44 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1.673314809799194</v>
+        <v>1.827950954437256</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>optimal</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>mix</t>
         </is>
       </c>
-      <c r="J11" t="n">
-        <v>1.217634916305542</v>
-      </c>
       <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
+        <v>1.206300497055054</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
         <is>
           <t>optimal</t>
         </is>
@@ -1020,38 +1086,44 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>7.090998411178589</v>
+        <v>7.762549638748169</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+        <v>348</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>optimal</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>mix</t>
         </is>
       </c>
-      <c r="J12" t="n">
-        <v>6.319898366928101</v>
-      </c>
       <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
+        <v>5.550711870193481</v>
+      </c>
+      <c r="L12" t="n">
+        <v>84</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
         <is>
           <t>optimal</t>
         </is>

--- a/verif_results/no_exact/datos_verificacion_relu_1como7.xlsx
+++ b/verif_results/no_exact/datos_verificacion_relu_1como7.xlsx
@@ -437,7 +437,7 @@
         </is>
       </c>
       <c r="E1" t="n">
-        <v>0.09993672370910645</v>
+        <v>0.1594870090484619</v>
       </c>
       <c r="F1" t="n">
         <v>3</v>
@@ -461,7 +461,7 @@
         </is>
       </c>
       <c r="K1" t="n">
-        <v>0.09813404083251953</v>
+        <v>0.09521698951721191</v>
       </c>
       <c r="L1" t="n">
         <v>3</v>
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3.824306726455688</v>
+        <v>5.230219841003418</v>
       </c>
       <c r="F2" t="n">
         <v>5</v>
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>5.227068901062012</v>
+        <v>3.980052471160889</v>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -555,10 +555,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1.093998193740845</v>
+        <v>0.8386754989624023</v>
       </c>
       <c r="F3" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -579,7 +579,7 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>1.439330577850342</v>
+        <v>0.7787275314331055</v>
       </c>
       <c r="L3" t="n">
         <v>12</v>
@@ -614,10 +614,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2.45500111579895</v>
+        <v>3.148834228515625</v>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -638,10 +638,10 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>2.960021495819092</v>
+        <v>6.689372777938843</v>
       </c>
       <c r="L4" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -673,7 +673,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.01483893394470215</v>
+        <v>0.01466178894042969</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>0.03736066818237305</v>
+        <v>0.03719496726989746</v>
       </c>
       <c r="L5" t="n">
         <v>1</v>
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.2435784339904785</v>
+        <v>0.2429578304290771</v>
       </c>
       <c r="F6" t="n">
         <v>3</v>
@@ -756,7 +756,7 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>0.1268658638000488</v>
+        <v>0.1020083427429199</v>
       </c>
       <c r="L6" t="n">
         <v>3</v>
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2.285854816436768</v>
+        <v>0.6379604339599609</v>
       </c>
       <c r="F7" t="n">
         <v>3</v>
@@ -815,10 +815,10 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>0.8546760082244873</v>
+        <v>1.512271881103516</v>
       </c>
       <c r="L7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -850,10 +850,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>19.98998689651489</v>
+        <v>36.6227502822876</v>
       </c>
       <c r="F8" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -874,10 +874,10 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>59.22467517852783</v>
+        <v>44.63139224052429</v>
       </c>
       <c r="L8" t="n">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.3874006271362305</v>
+        <v>0.2502291202545166</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
@@ -933,10 +933,10 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>0.7926912307739258</v>
+        <v>1.121345996856689</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -968,34 +968,34 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2.142694711685181</v>
+        <v>2.711578607559204</v>
       </c>
       <c r="F10" t="n">
+        <v>9</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1.508636951446533</v>
+      </c>
+      <c r="L10" t="n">
         <v>5</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>optimal</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>mix</t>
-        </is>
-      </c>
-      <c r="K10" t="n">
-        <v>1.794189214706421</v>
-      </c>
-      <c r="L10" t="n">
-        <v>9</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1.827950954437256</v>
+        <v>1.287206649780273</v>
       </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>1.206300497055054</v>
+        <v>1.348152637481689</v>
       </c>
       <c r="L11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1086,10 +1086,10 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>7.762549638748169</v>
+        <v>5.962312936782837</v>
       </c>
       <c r="F12" t="n">
-        <v>348</v>
+        <v>175</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>5.550711870193481</v>
+        <v>6.029916286468506</v>
       </c>
       <c r="L12" t="n">
-        <v>84</v>
+        <v>171</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
